--- a/demo_lexicon/reseñas_emociones_etiquetadas.xlsx
+++ b/demo_lexicon/reseñas_emociones_etiquetadas.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85f1d7acf737f95f/Escritorio/Proyectos/Lexicon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unmsm\Thesis_project_QuispeCabello_Sanchez_Wong\demo_lexicon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D59EE1AC-0AC1-405D-853C-046B0E6CD78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DD99E0-2919-43AD-AFBD-8A598A9CD431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$806</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -24,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -5196,10 +5197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C451" sqref="C451:P451"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5259,7 +5261,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5361,7 +5363,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5412,7 +5414,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5463,7 +5465,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5514,7 +5516,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5565,7 +5567,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5616,7 +5618,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5667,7 +5669,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -5718,7 +5720,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5769,7 +5771,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -5820,7 +5822,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5868,7 +5870,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5919,7 +5921,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5970,7 +5972,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -6021,7 +6023,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6072,7 +6074,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -6123,7 +6125,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -6174,7 +6176,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -6222,7 +6224,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="144" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -6273,7 +6275,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -6321,7 +6323,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -6369,7 +6371,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -6420,7 +6422,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -6471,7 +6473,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -6522,7 +6524,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -6573,7 +6575,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -6624,7 +6626,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -6675,7 +6677,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -6726,7 +6728,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -6777,7 +6779,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -6826,7 +6828,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -6877,7 +6879,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -6928,7 +6930,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -6979,7 +6981,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -7030,7 +7032,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -7081,7 +7083,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -7132,7 +7134,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -7234,7 +7236,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -7285,7 +7287,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -7336,7 +7338,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -7387,7 +7389,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -7438,7 +7440,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -7489,7 +7491,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -7540,7 +7542,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -7591,7 +7593,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -7642,7 +7644,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -7693,7 +7695,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -7744,7 +7746,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -7795,7 +7797,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -7846,7 +7848,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -7897,7 +7899,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -7948,7 +7950,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -7999,7 +8001,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -8050,7 +8052,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -8101,7 +8103,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -8152,7 +8154,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -8203,7 +8205,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -8254,7 +8256,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -8305,7 +8307,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -8356,7 +8358,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -8407,7 +8409,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -8458,7 +8460,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -8509,7 +8511,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -8560,7 +8562,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -8611,7 +8613,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -8662,7 +8664,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -8713,7 +8715,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -8764,7 +8766,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -8815,7 +8817,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -8866,7 +8868,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -8917,7 +8919,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -8968,7 +8970,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -9019,7 +9021,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -9070,7 +9072,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -9121,7 +9123,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -9172,7 +9174,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -9223,7 +9225,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -9276,7 +9278,7 @@
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
     </row>
-    <row r="81" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -9329,7 +9331,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
     </row>
-    <row r="82" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -9382,7 +9384,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -9435,7 +9437,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
     </row>
-    <row r="84" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -9488,7 +9490,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
     </row>
-    <row r="85" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -9541,7 +9543,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -9594,7 +9596,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
     </row>
-    <row r="87" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -9647,7 +9649,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
     </row>
-    <row r="88" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -9700,7 +9702,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
     </row>
-    <row r="89" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -9753,7 +9755,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
     </row>
-    <row r="90" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -9806,7 +9808,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -9859,7 +9861,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
     </row>
-    <row r="92" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -9912,7 +9914,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
     </row>
-    <row r="93" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -9965,7 +9967,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
     </row>
-    <row r="94" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -10018,7 +10020,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
     </row>
-    <row r="95" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -10071,7 +10073,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
     </row>
-    <row r="96" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -10124,7 +10126,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -10177,7 +10179,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
     </row>
-    <row r="98" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -10230,7 +10232,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
     </row>
-    <row r="99" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -10283,7 +10285,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
     </row>
-    <row r="100" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -10336,7 +10338,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
     </row>
-    <row r="101" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -10389,7 +10391,7 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
     </row>
-    <row r="102" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -10442,7 +10444,7 @@
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -10495,7 +10497,7 @@
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -10548,7 +10550,7 @@
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -10601,7 +10603,7 @@
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -10654,7 +10656,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -10707,7 +10709,7 @@
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -10760,7 +10762,7 @@
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -10813,7 +10815,7 @@
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -10866,7 +10868,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -10919,7 +10921,7 @@
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -11025,7 +11027,7 @@
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -11078,7 +11080,7 @@
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -11131,7 +11133,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -11184,7 +11186,7 @@
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -11237,7 +11239,7 @@
       <c r="AA117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -11290,7 +11292,7 @@
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -11343,7 +11345,7 @@
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -11396,7 +11398,7 @@
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -11449,7 +11451,7 @@
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -11502,7 +11504,7 @@
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -11555,7 +11557,7 @@
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -11608,7 +11610,7 @@
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -11661,7 +11663,7 @@
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -11714,7 +11716,7 @@
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -11767,7 +11769,7 @@
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -11820,7 +11822,7 @@
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -11873,7 +11875,7 @@
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -11926,7 +11928,7 @@
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -11977,7 +11979,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="132" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -12028,7 +12030,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -12079,7 +12081,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>14</v>
       </c>
@@ -12130,7 +12132,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="135" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -12181,7 +12183,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -12232,7 +12234,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -12283,7 +12285,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>14</v>
       </c>
@@ -12334,7 +12336,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>14</v>
       </c>
@@ -12385,7 +12387,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -12436,7 +12438,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="141" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -12487,7 +12489,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -12538,7 +12540,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="143" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -12589,7 +12591,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -12640,7 +12642,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>14</v>
       </c>
@@ -12691,7 +12693,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -12742,7 +12744,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -12793,7 +12795,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -12844,7 +12846,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -12895,7 +12897,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>14</v>
       </c>
@@ -12946,7 +12948,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -12997,7 +12999,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -13048,7 +13050,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -13099,7 +13101,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -13150,7 +13152,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -13201,7 +13203,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -13252,7 +13254,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -13303,7 +13305,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -13354,7 +13356,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -13456,7 +13458,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -13507,7 +13509,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -13558,7 +13560,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -13609,7 +13611,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -13660,7 +13662,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -13711,7 +13713,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>14</v>
       </c>
@@ -13762,7 +13764,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>14</v>
       </c>
@@ -13813,7 +13815,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -13864,7 +13866,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -13915,7 +13917,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -13966,7 +13968,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -14017,7 +14019,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -14068,7 +14070,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -14119,7 +14121,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>14</v>
       </c>
@@ -14170,7 +14172,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>14</v>
       </c>
@@ -14221,7 +14223,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -14272,7 +14274,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -14323,7 +14325,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -14374,7 +14376,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -14425,7 +14427,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -14476,7 +14478,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -14527,7 +14529,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -14578,7 +14580,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -14629,7 +14631,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -14680,7 +14682,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -14728,7 +14730,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -14776,7 +14778,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -14824,7 +14826,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -14872,7 +14874,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -14920,7 +14922,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -14968,7 +14970,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -15016,7 +15018,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -15064,7 +15066,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>14</v>
       </c>
@@ -15112,7 +15114,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -15160,7 +15162,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -15208,7 +15210,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -15256,7 +15258,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -15304,7 +15306,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -15352,7 +15354,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -15400,7 +15402,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>14</v>
       </c>
@@ -15448,7 +15450,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>14</v>
       </c>
@@ -15496,7 +15498,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -15544,7 +15546,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -15592,7 +15594,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -15640,7 +15642,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -15688,7 +15690,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>14</v>
       </c>
@@ -15736,7 +15738,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>14</v>
       </c>
@@ -15784,7 +15786,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -15829,7 +15831,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -15877,7 +15879,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>14</v>
       </c>
@@ -15925,7 +15927,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>433</v>
       </c>
@@ -15976,7 +15978,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>433</v>
       </c>
@@ -16027,7 +16029,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>433</v>
       </c>
@@ -16078,7 +16080,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>433</v>
       </c>
@@ -16129,7 +16131,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>433</v>
       </c>
@@ -16180,7 +16182,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>433</v>
       </c>
@@ -16231,7 +16233,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>433</v>
       </c>
@@ -16282,7 +16284,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>433</v>
       </c>
@@ -16333,7 +16335,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>433</v>
       </c>
@@ -16384,7 +16386,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>433</v>
       </c>
@@ -16435,7 +16437,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>433</v>
       </c>
@@ -16486,7 +16488,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>433</v>
       </c>
@@ -16537,7 +16539,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>433</v>
       </c>
@@ -16588,7 +16590,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>433</v>
       </c>
@@ -16639,7 +16641,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>433</v>
       </c>
@@ -16690,7 +16692,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>433</v>
       </c>
@@ -16741,7 +16743,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>433</v>
       </c>
@@ -16792,7 +16794,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>433</v>
       </c>
@@ -16843,7 +16845,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>433</v>
       </c>
@@ -16894,7 +16896,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>433</v>
       </c>
@@ -16945,7 +16947,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>433</v>
       </c>
@@ -16996,7 +16998,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>433</v>
       </c>
@@ -17047,7 +17049,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>433</v>
       </c>
@@ -17098,7 +17100,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>433</v>
       </c>
@@ -17149,7 +17151,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>433</v>
       </c>
@@ -17200,7 +17202,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>433</v>
       </c>
@@ -17251,7 +17253,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>433</v>
       </c>
@@ -17302,7 +17304,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>433</v>
       </c>
@@ -17353,7 +17355,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>433</v>
       </c>
@@ -17404,7 +17406,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>433</v>
       </c>
@@ -17455,7 +17457,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>433</v>
       </c>
@@ -17506,7 +17508,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>433</v>
       </c>
@@ -17557,7 +17559,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>433</v>
       </c>
@@ -17608,7 +17610,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>433</v>
       </c>
@@ -17659,7 +17661,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>433</v>
       </c>
@@ -17710,7 +17712,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>433</v>
       </c>
@@ -17761,7 +17763,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>433</v>
       </c>
@@ -17805,14 +17807,14 @@
         <v>0</v>
       </c>
       <c r="O247" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="P247" t="str">
         <f t="shared" si="3"/>
-        <v>satisfecho</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
+        <v>insatisfecho</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>433</v>
       </c>
@@ -17863,7 +17865,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>433</v>
       </c>
@@ -17914,7 +17916,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>433</v>
       </c>
@@ -17965,7 +17967,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>433</v>
       </c>
@@ -18016,7 +18018,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>433</v>
       </c>
@@ -18067,7 +18069,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>433</v>
       </c>
@@ -18118,7 +18120,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>433</v>
       </c>
@@ -18169,7 +18171,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>433</v>
       </c>
@@ -18220,7 +18222,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>433</v>
       </c>
@@ -18271,7 +18273,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>433</v>
       </c>
@@ -18322,7 +18324,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>433</v>
       </c>
@@ -18373,7 +18375,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>433</v>
       </c>
@@ -18424,7 +18426,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>433</v>
       </c>
@@ -18475,7 +18477,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>433</v>
       </c>
@@ -18526,7 +18528,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>433</v>
       </c>
@@ -18577,7 +18579,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>433</v>
       </c>
@@ -18628,7 +18630,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>433</v>
       </c>
@@ -18679,7 +18681,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>433</v>
       </c>
@@ -18730,7 +18732,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>433</v>
       </c>
@@ -18781,7 +18783,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>433</v>
       </c>
@@ -18832,7 +18834,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>433</v>
       </c>
@@ -18883,7 +18885,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>433</v>
       </c>
@@ -18934,7 +18936,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>433</v>
       </c>
@@ -18985,7 +18987,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>433</v>
       </c>
@@ -19036,7 +19038,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>433</v>
       </c>
@@ -19087,7 +19089,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>433</v>
       </c>
@@ -19138,7 +19140,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>433</v>
       </c>
@@ -19189,7 +19191,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>433</v>
       </c>
@@ -19240,7 +19242,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>433</v>
       </c>
@@ -19291,7 +19293,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>433</v>
       </c>
@@ -19342,7 +19344,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>433</v>
       </c>
@@ -19393,7 +19395,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>433</v>
       </c>
@@ -19444,7 +19446,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>433</v>
       </c>
@@ -19495,7 +19497,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>433</v>
       </c>
@@ -19546,7 +19548,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>433</v>
       </c>
@@ -19597,7 +19599,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>433</v>
       </c>
@@ -19648,7 +19650,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>433</v>
       </c>
@@ -19699,7 +19701,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>433</v>
       </c>
@@ -19801,7 +19803,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>433</v>
       </c>
@@ -19852,7 +19854,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>433</v>
       </c>
@@ -19903,7 +19905,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>433</v>
       </c>
@@ -19954,7 +19956,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>433</v>
       </c>
@@ -20005,7 +20007,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>433</v>
       </c>
@@ -20056,7 +20058,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>433</v>
       </c>
@@ -20107,7 +20109,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>433</v>
       </c>
@@ -20158,7 +20160,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>433</v>
       </c>
@@ -20209,7 +20211,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>433</v>
       </c>
@@ -20260,7 +20262,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>433</v>
       </c>
@@ -20311,7 +20313,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>433</v>
       </c>
@@ -20362,7 +20364,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>433</v>
       </c>
@@ -20413,7 +20415,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>433</v>
       </c>
@@ -20464,7 +20466,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>433</v>
       </c>
@@ -20515,7 +20517,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>433</v>
       </c>
@@ -20566,7 +20568,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>433</v>
       </c>
@@ -20617,7 +20619,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>433</v>
       </c>
@@ -20668,7 +20670,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>433</v>
       </c>
@@ -20719,7 +20721,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>433</v>
       </c>
@@ -20770,7 +20772,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>433</v>
       </c>
@@ -20821,7 +20823,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>433</v>
       </c>
@@ -20872,7 +20874,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>433</v>
       </c>
@@ -20923,7 +20925,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>433</v>
       </c>
@@ -20974,7 +20976,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>433</v>
       </c>
@@ -21025,7 +21027,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>433</v>
       </c>
@@ -21076,7 +21078,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>433</v>
       </c>
@@ -21127,7 +21129,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>433</v>
       </c>
@@ -21178,7 +21180,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>433</v>
       </c>
@@ -21229,7 +21231,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>433</v>
       </c>
@@ -21280,7 +21282,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>433</v>
       </c>
@@ -21331,7 +21333,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>433</v>
       </c>
@@ -21382,7 +21384,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>433</v>
       </c>
@@ -21433,7 +21435,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>433</v>
       </c>
@@ -21484,7 +21486,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>433</v>
       </c>
@@ -21535,7 +21537,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>433</v>
       </c>
@@ -21586,7 +21588,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>433</v>
       </c>
@@ -21637,7 +21639,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>433</v>
       </c>
@@ -21685,7 +21687,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>433</v>
       </c>
@@ -21736,7 +21738,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>433</v>
       </c>
@@ -21787,7 +21789,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>433</v>
       </c>
@@ -21838,7 +21840,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>433</v>
       </c>
@@ -21889,7 +21891,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>433</v>
       </c>
@@ -21940,7 +21942,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>433</v>
       </c>
@@ -21991,7 +21993,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>433</v>
       </c>
@@ -22042,7 +22044,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>433</v>
       </c>
@@ -22093,7 +22095,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>433</v>
       </c>
@@ -22144,7 +22146,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>433</v>
       </c>
@@ -22195,7 +22197,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>433</v>
       </c>
@@ -22246,7 +22248,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>433</v>
       </c>
@@ -22297,7 +22299,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>433</v>
       </c>
@@ -22348,7 +22350,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>433</v>
       </c>
@@ -22399,7 +22401,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>433</v>
       </c>
@@ -22450,7 +22452,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>433</v>
       </c>
@@ -22501,7 +22503,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>433</v>
       </c>
@@ -22552,7 +22554,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>433</v>
       </c>
@@ -22603,7 +22605,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>433</v>
       </c>
@@ -22654,7 +22656,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>433</v>
       </c>
@@ -22705,7 +22707,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>433</v>
       </c>
@@ -22756,7 +22758,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="345" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>433</v>
       </c>
@@ -22807,7 +22809,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>433</v>
       </c>
@@ -22858,7 +22860,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>433</v>
       </c>
@@ -22909,7 +22911,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>433</v>
       </c>
@@ -22960,7 +22962,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>433</v>
       </c>
@@ -23011,7 +23013,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>433</v>
       </c>
@@ -23062,7 +23064,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>433</v>
       </c>
@@ -23113,7 +23115,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>433</v>
       </c>
@@ -23164,7 +23166,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>433</v>
       </c>
@@ -23215,7 +23217,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>433</v>
       </c>
@@ -23266,7 +23268,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>433</v>
       </c>
@@ -23317,7 +23319,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>433</v>
       </c>
@@ -23368,7 +23370,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>433</v>
       </c>
@@ -23419,7 +23421,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>433</v>
       </c>
@@ -23470,7 +23472,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>433</v>
       </c>
@@ -23521,7 +23523,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>433</v>
       </c>
@@ -23572,7 +23574,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>433</v>
       </c>
@@ -23623,7 +23625,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>433</v>
       </c>
@@ -23674,7 +23676,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>433</v>
       </c>
@@ -23725,7 +23727,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>433</v>
       </c>
@@ -23776,7 +23778,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>433</v>
       </c>
@@ -23827,7 +23829,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>433</v>
       </c>
@@ -23878,7 +23880,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>433</v>
       </c>
@@ -23929,7 +23931,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>433</v>
       </c>
@@ -23980,7 +23982,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>433</v>
       </c>
@@ -24031,7 +24033,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>433</v>
       </c>
@@ -24082,7 +24084,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>433</v>
       </c>
@@ -24133,7 +24135,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>433</v>
       </c>
@@ -24184,7 +24186,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>433</v>
       </c>
@@ -24235,7 +24237,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>433</v>
       </c>
@@ -24286,7 +24288,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>433</v>
       </c>
@@ -24337,7 +24339,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>433</v>
       </c>
@@ -24388,7 +24390,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>433</v>
       </c>
@@ -24439,7 +24441,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>433</v>
       </c>
@@ -24490,7 +24492,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>433</v>
       </c>
@@ -24541,7 +24543,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>433</v>
       </c>
@@ -24592,7 +24594,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>433</v>
       </c>
@@ -24643,7 +24645,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>433</v>
       </c>
@@ -24694,7 +24696,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>433</v>
       </c>
@@ -24745,7 +24747,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>433</v>
       </c>
@@ -24796,7 +24798,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>433</v>
       </c>
@@ -24847,7 +24849,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>433</v>
       </c>
@@ -24898,7 +24900,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>433</v>
       </c>
@@ -24949,7 +24951,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>433</v>
       </c>
@@ -25000,7 +25002,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>433</v>
       </c>
@@ -25051,7 +25053,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="390" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>433</v>
       </c>
@@ -25102,7 +25104,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>433</v>
       </c>
@@ -25153,7 +25155,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>433</v>
       </c>
@@ -25204,7 +25206,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>433</v>
       </c>
@@ -25255,7 +25257,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>433</v>
       </c>
@@ -25306,7 +25308,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>433</v>
       </c>
@@ -25357,7 +25359,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>433</v>
       </c>
@@ -25408,7 +25410,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>433</v>
       </c>
@@ -25459,7 +25461,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>433</v>
       </c>
@@ -25510,7 +25512,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>433</v>
       </c>
@@ -25561,7 +25563,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>433</v>
       </c>
@@ -25612,7 +25614,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>800</v>
       </c>
@@ -25663,7 +25665,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>800</v>
       </c>
@@ -25714,7 +25716,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="403" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>800</v>
       </c>
@@ -25765,7 +25767,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>800</v>
       </c>
@@ -25816,7 +25818,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>800</v>
       </c>
@@ -25867,7 +25869,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="144" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>800</v>
       </c>
@@ -25918,7 +25920,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="407" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>800</v>
       </c>
@@ -25969,7 +25971,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>800</v>
       </c>
@@ -26020,7 +26022,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>800</v>
       </c>
@@ -26071,7 +26073,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>800</v>
       </c>
@@ -26122,7 +26124,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>800</v>
       </c>
@@ -26173,7 +26175,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:16" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>800</v>
       </c>
@@ -26224,7 +26226,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:16" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>800</v>
       </c>
@@ -26275,7 +26277,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>800</v>
       </c>
@@ -26326,7 +26328,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:16" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>800</v>
       </c>
@@ -26377,7 +26379,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>800</v>
       </c>
@@ -26428,7 +26430,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>800</v>
       </c>
@@ -26479,7 +26481,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>800</v>
       </c>
@@ -26530,7 +26532,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>800</v>
       </c>
@@ -26581,7 +26583,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:16" ht="316.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>800</v>
       </c>
@@ -26632,7 +26634,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:16" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>800</v>
       </c>
@@ -26683,7 +26685,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>800</v>
       </c>
@@ -26734,7 +26736,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>800</v>
       </c>
@@ -26785,7 +26787,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>800</v>
       </c>
@@ -26887,7 +26889,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="144" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:16" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>800</v>
       </c>
@@ -26938,7 +26940,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>800</v>
       </c>
@@ -26989,7 +26991,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>800</v>
       </c>
@@ -27040,7 +27042,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>800</v>
       </c>
@@ -27091,7 +27093,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>800</v>
       </c>
@@ -27142,7 +27144,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>800</v>
       </c>
@@ -27193,7 +27195,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>800</v>
       </c>
@@ -27244,7 +27246,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>800</v>
       </c>
@@ -27295,7 +27297,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>800</v>
       </c>
@@ -27346,7 +27348,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>800</v>
       </c>
@@ -27397,7 +27399,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>800</v>
       </c>
@@ -27448,7 +27450,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>800</v>
       </c>
@@ -27499,7 +27501,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>800</v>
       </c>
@@ -27550,7 +27552,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>800</v>
       </c>
@@ -27601,7 +27603,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>800</v>
       </c>
@@ -27652,7 +27654,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>800</v>
       </c>
@@ -27703,7 +27705,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>800</v>
       </c>
@@ -27754,7 +27756,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>800</v>
       </c>
@@ -27805,7 +27807,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="444" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>800</v>
       </c>
@@ -27856,7 +27858,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="445" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>800</v>
       </c>
@@ -27907,7 +27909,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="446" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>800</v>
       </c>
@@ -27958,7 +27960,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="447" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:16" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>800</v>
       </c>
@@ -28009,7 +28011,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="448" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>800</v>
       </c>
@@ -28060,7 +28062,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>800</v>
       </c>
@@ -28111,7 +28113,7 @@
         <v>satisfecho</v>
       </c>
     </row>
-    <row r="450" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>800</v>
       </c>
@@ -28162,7 +28164,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="451" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>800</v>
       </c>
@@ -28213,7 +28215,7 @@
         <v>insatisfecho</v>
       </c>
     </row>
-    <row r="452" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>800</v>
       </c>
@@ -28261,7 +28263,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="453" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>800</v>
       </c>
@@ -28309,7 +28311,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="454" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>800</v>
       </c>
@@ -28357,7 +28359,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="455" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>800</v>
       </c>
@@ -28453,7 +28455,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="457" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>800</v>
       </c>
@@ -28501,7 +28503,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>800</v>
       </c>
@@ -28549,7 +28551,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="459" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>800</v>
       </c>
@@ -28597,7 +28599,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="460" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>800</v>
       </c>
@@ -28645,7 +28647,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="461" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>800</v>
       </c>
@@ -28693,7 +28695,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="462" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>800</v>
       </c>
@@ -28741,7 +28743,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="463" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>800</v>
       </c>
@@ -28789,7 +28791,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="464" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>800</v>
       </c>
@@ -28837,7 +28839,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="465" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>800</v>
       </c>
@@ -28885,7 +28887,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="466" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>800</v>
       </c>
@@ -28933,7 +28935,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>800</v>
       </c>
@@ -28981,7 +28983,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="468" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>800</v>
       </c>
@@ -29029,7 +29031,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="469" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>800</v>
       </c>
@@ -29077,7 +29079,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="470" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>800</v>
       </c>
@@ -29125,7 +29127,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="471" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>800</v>
       </c>
@@ -29173,7 +29175,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="472" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>800</v>
       </c>
@@ -29221,7 +29223,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="473" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>800</v>
       </c>
@@ -29269,7 +29271,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="474" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>800</v>
       </c>
@@ -29317,7 +29319,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="475" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>800</v>
       </c>
@@ -29365,7 +29367,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="476" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>800</v>
       </c>
@@ -29413,7 +29415,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>800</v>
       </c>
@@ -29461,7 +29463,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="478" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>800</v>
       </c>
@@ -29509,7 +29511,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="479" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>800</v>
       </c>
@@ -29557,7 +29559,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="480" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>800</v>
       </c>
@@ -29605,7 +29607,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="481" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>800</v>
       </c>
@@ -29653,7 +29655,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="482" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>800</v>
       </c>
@@ -29701,7 +29703,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="483" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>800</v>
       </c>
@@ -29749,7 +29751,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="484" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>800</v>
       </c>
@@ -29797,7 +29799,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>800</v>
       </c>
@@ -29845,7 +29847,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="486" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>800</v>
       </c>
@@ -29893,7 +29895,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>800</v>
       </c>
@@ -29941,7 +29943,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="488" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>800</v>
       </c>
@@ -29989,7 +29991,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>800</v>
       </c>
@@ -30037,7 +30039,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>800</v>
       </c>
@@ -30085,7 +30087,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="491" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>800</v>
       </c>
@@ -30133,7 +30135,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="492" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>800</v>
       </c>
@@ -30181,7 +30183,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="493" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>800</v>
       </c>
@@ -30229,7 +30231,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="494" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>800</v>
       </c>
@@ -30277,7 +30279,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="495" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>800</v>
       </c>
@@ -30325,7 +30327,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>800</v>
       </c>
@@ -30373,7 +30375,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="497" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>800</v>
       </c>
@@ -30421,7 +30423,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>800</v>
       </c>
@@ -30469,7 +30471,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="499" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>800</v>
       </c>
@@ -30517,7 +30519,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="500" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>800</v>
       </c>
@@ -30565,7 +30567,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="501" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>800</v>
       </c>
@@ -30613,7 +30615,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>800</v>
       </c>
@@ -30661,7 +30663,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>800</v>
       </c>
@@ -30709,7 +30711,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>800</v>
       </c>
@@ -30757,7 +30759,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>800</v>
       </c>
@@ -30805,7 +30807,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="506" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>800</v>
       </c>
@@ -30853,7 +30855,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="507" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>800</v>
       </c>
@@ -30901,7 +30903,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>800</v>
       </c>
@@ -30949,7 +30951,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="509" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>800</v>
       </c>
@@ -30997,7 +30999,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="510" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>800</v>
       </c>
@@ -31045,7 +31047,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="511" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>800</v>
       </c>
@@ -31093,7 +31095,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="512" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>800</v>
       </c>
@@ -31141,7 +31143,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="513" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>800</v>
       </c>
@@ -31189,7 +31191,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="514" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>800</v>
       </c>
@@ -31237,7 +31239,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="515" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>800</v>
       </c>
@@ -31285,7 +31287,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="516" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>800</v>
       </c>
@@ -31333,7 +31335,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="517" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>800</v>
       </c>
@@ -31381,7 +31383,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="518" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>800</v>
       </c>
@@ -31429,7 +31431,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="519" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>800</v>
       </c>
@@ -31477,7 +31479,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="520" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>800</v>
       </c>
@@ -31525,7 +31527,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="521" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>800</v>
       </c>
@@ -31573,7 +31575,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="522" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>800</v>
       </c>
@@ -31621,7 +31623,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="523" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>800</v>
       </c>
@@ -31669,7 +31671,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="524" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>800</v>
       </c>
@@ -31717,7 +31719,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="525" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>800</v>
       </c>
@@ -31765,7 +31767,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="526" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>800</v>
       </c>
@@ -31813,7 +31815,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="527" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>800</v>
       </c>
@@ -31861,7 +31863,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="528" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>800</v>
       </c>
@@ -31909,7 +31911,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>800</v>
       </c>
@@ -31957,7 +31959,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>800</v>
       </c>
@@ -32005,7 +32007,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>800</v>
       </c>
@@ -32053,7 +32055,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>800</v>
       </c>
@@ -32101,7 +32103,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>800</v>
       </c>
@@ -32149,7 +32151,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>800</v>
       </c>
@@ -32197,7 +32199,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>800</v>
       </c>
@@ -32245,7 +32247,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>800</v>
       </c>
@@ -32293,7 +32295,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>800</v>
       </c>
@@ -32341,7 +32343,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>800</v>
       </c>
@@ -32389,7 +32391,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>800</v>
       </c>
@@ -32437,7 +32439,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>800</v>
       </c>
@@ -32485,7 +32487,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>800</v>
       </c>
@@ -32533,7 +32535,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>800</v>
       </c>
@@ -32581,7 +32583,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>800</v>
       </c>
@@ -32629,7 +32631,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>800</v>
       </c>
@@ -32677,7 +32679,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="545" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>800</v>
       </c>
@@ -32725,7 +32727,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="546" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>800</v>
       </c>
@@ -32773,7 +32775,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="547" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>800</v>
       </c>
@@ -32821,7 +32823,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="548" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>800</v>
       </c>
@@ -32869,7 +32871,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="549" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>800</v>
       </c>
@@ -32917,7 +32919,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="550" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>800</v>
       </c>
@@ -32965,7 +32967,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="551" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>800</v>
       </c>
@@ -33013,7 +33015,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="552" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>800</v>
       </c>
@@ -33061,7 +33063,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="553" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>800</v>
       </c>
@@ -33109,7 +33111,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="554" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>800</v>
       </c>
@@ -33157,7 +33159,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="555" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>800</v>
       </c>
@@ -33205,7 +33207,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="556" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>800</v>
       </c>
@@ -33253,7 +33255,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="557" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>800</v>
       </c>
@@ -33301,7 +33303,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="558" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>800</v>
       </c>
@@ -33349,7 +33351,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="559" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>800</v>
       </c>
@@ -33397,7 +33399,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="560" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>800</v>
       </c>
@@ -33445,7 +33447,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>800</v>
       </c>
@@ -33493,7 +33495,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>800</v>
       </c>
@@ -33541,7 +33543,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>800</v>
       </c>
@@ -33589,7 +33591,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>800</v>
       </c>
@@ -33637,7 +33639,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>800</v>
       </c>
@@ -33685,7 +33687,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>800</v>
       </c>
@@ -33733,7 +33735,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>800</v>
       </c>
@@ -33781,7 +33783,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>800</v>
       </c>
@@ -33829,7 +33831,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>800</v>
       </c>
@@ -33877,7 +33879,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>800</v>
       </c>
@@ -33925,7 +33927,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>800</v>
       </c>
@@ -33973,7 +33975,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>800</v>
       </c>
@@ -34021,7 +34023,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="573" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>800</v>
       </c>
@@ -34069,7 +34071,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="574" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>800</v>
       </c>
@@ -34117,7 +34119,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="575" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>800</v>
       </c>
@@ -34165,7 +34167,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="576" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>800</v>
       </c>
@@ -34213,7 +34215,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="577" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>800</v>
       </c>
@@ -34261,7 +34263,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="578" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>800</v>
       </c>
@@ -34309,7 +34311,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="579" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>800</v>
       </c>
@@ -34357,7 +34359,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="580" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>800</v>
       </c>
@@ -34405,7 +34407,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="581" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>800</v>
       </c>
@@ -34453,7 +34455,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="582" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>800</v>
       </c>
@@ -34501,7 +34503,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="583" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>800</v>
       </c>
@@ -34549,7 +34551,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="584" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>800</v>
       </c>
@@ -34597,7 +34599,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="585" spans="1:16" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:16" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>1157</v>
       </c>
@@ -34645,7 +34647,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="586" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1157</v>
       </c>
@@ -34693,7 +34695,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="587" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:16" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>1157</v>
       </c>
@@ -34741,7 +34743,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="588" spans="1:16" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:16" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>1157</v>
       </c>
@@ -34789,7 +34791,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="589" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1157</v>
       </c>
@@ -34837,7 +34839,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="590" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>1157</v>
       </c>
@@ -34885,7 +34887,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="591" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>1157</v>
       </c>
@@ -34933,7 +34935,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="592" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>1157</v>
       </c>
@@ -34981,7 +34983,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="593" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>1157</v>
       </c>
@@ -35029,7 +35031,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="594" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>1157</v>
       </c>
@@ -35077,7 +35079,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="595" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>1157</v>
       </c>
@@ -35125,7 +35127,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="596" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>1157</v>
       </c>
@@ -35173,7 +35175,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="597" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>1157</v>
       </c>
@@ -35221,7 +35223,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="598" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:16" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>1157</v>
       </c>
@@ -35269,7 +35271,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="599" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>1157</v>
       </c>
@@ -35317,7 +35319,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="600" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>1157</v>
       </c>
@@ -35365,7 +35367,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="601" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>1157</v>
       </c>
@@ -35413,7 +35415,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="602" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>1157</v>
       </c>
@@ -35461,7 +35463,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="603" spans="1:16" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:16" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>1157</v>
       </c>
@@ -35509,7 +35511,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="604" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>1157</v>
       </c>
@@ -35605,7 +35607,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="606" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>1157</v>
       </c>
@@ -35653,7 +35655,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="607" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>1157</v>
       </c>
@@ -35701,7 +35703,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="608" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>1157</v>
       </c>
@@ -35749,7 +35751,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="609" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>1157</v>
       </c>
@@ -35797,7 +35799,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="610" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1157</v>
       </c>
@@ -35845,7 +35847,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="611" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>1157</v>
       </c>
@@ -35893,7 +35895,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="612" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>1157</v>
       </c>
@@ -35941,7 +35943,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="613" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>1157</v>
       </c>
@@ -35989,7 +35991,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="614" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>1157</v>
       </c>
@@ -36037,7 +36039,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="615" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>1157</v>
       </c>
@@ -36085,7 +36087,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="616" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>1157</v>
       </c>
@@ -36133,7 +36135,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="617" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:16" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>1157</v>
       </c>
@@ -36181,7 +36183,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="618" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:16" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>1157</v>
       </c>
@@ -36229,7 +36231,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="619" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>1157</v>
       </c>
@@ -36277,7 +36279,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="620" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>1157</v>
       </c>
@@ -36325,7 +36327,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="621" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>1157</v>
       </c>
@@ -36373,7 +36375,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="622" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>1157</v>
       </c>
@@ -36421,7 +36423,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="623" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>1157</v>
       </c>
@@ -36469,7 +36471,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="624" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>1157</v>
       </c>
@@ -36517,7 +36519,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="625" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>1157</v>
       </c>
@@ -36565,7 +36567,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="626" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>1157</v>
       </c>
@@ -36613,7 +36615,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="627" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:16" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>1157</v>
       </c>
@@ -36661,7 +36663,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="628" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>1157</v>
       </c>
@@ -36709,7 +36711,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="629" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>1157</v>
       </c>
@@ -36757,7 +36759,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="630" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>1157</v>
       </c>
@@ -36805,7 +36807,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="631" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>1157</v>
       </c>
@@ -36853,7 +36855,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="632" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>1157</v>
       </c>
@@ -36901,7 +36903,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="633" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>1157</v>
       </c>
@@ -36949,7 +36951,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="634" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>1157</v>
       </c>
@@ -36997,7 +36999,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="635" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>1157</v>
       </c>
@@ -37045,7 +37047,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="636" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>1157</v>
       </c>
@@ -37093,7 +37095,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="637" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>1157</v>
       </c>
@@ -37141,7 +37143,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="638" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>1157</v>
       </c>
@@ -37189,7 +37191,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="639" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>1157</v>
       </c>
@@ -37237,7 +37239,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="640" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:16" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>1157</v>
       </c>
@@ -37285,7 +37287,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="641" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>1157</v>
       </c>
@@ -37333,7 +37335,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="642" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1157</v>
       </c>
@@ -37381,7 +37383,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="643" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>1157</v>
       </c>
@@ -37429,7 +37431,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="644" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>1157</v>
       </c>
@@ -37477,7 +37479,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="645" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>1157</v>
       </c>
@@ -37525,7 +37527,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="646" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>1157</v>
       </c>
@@ -37573,7 +37575,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="647" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>1157</v>
       </c>
@@ -37621,7 +37623,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="648" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>1157</v>
       </c>
@@ -37669,7 +37671,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="649" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1157</v>
       </c>
@@ -37717,7 +37719,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="650" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1157</v>
       </c>
@@ -37765,7 +37767,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="651" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1157</v>
       </c>
@@ -37813,7 +37815,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="652" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1157</v>
       </c>
@@ -37861,7 +37863,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="653" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1157</v>
       </c>
@@ -37909,7 +37911,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="654" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>1157</v>
       </c>
@@ -37957,7 +37959,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="655" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>1157</v>
       </c>
@@ -38005,7 +38007,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="656" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:16" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>1157</v>
       </c>
@@ -38053,7 +38055,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="657" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>1157</v>
       </c>
@@ -38101,7 +38103,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="658" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>1157</v>
       </c>
@@ -38149,7 +38151,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="659" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>1157</v>
       </c>
@@ -38197,7 +38199,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="660" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>1157</v>
       </c>
@@ -38245,7 +38247,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="661" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>1157</v>
       </c>
@@ -38293,7 +38295,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="662" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1157</v>
       </c>
@@ -38341,7 +38343,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="663" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1157</v>
       </c>
@@ -38389,7 +38391,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="664" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1157</v>
       </c>
@@ -38437,7 +38439,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="665" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>1157</v>
       </c>
@@ -38485,7 +38487,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="666" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1157</v>
       </c>
@@ -38533,7 +38535,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="667" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1157</v>
       </c>
@@ -38581,7 +38583,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="668" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>1157</v>
       </c>
@@ -38629,7 +38631,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="669" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1157</v>
       </c>
@@ -38677,7 +38679,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="670" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1157</v>
       </c>
@@ -38725,7 +38727,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="671" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1157</v>
       </c>
@@ -38773,7 +38775,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="672" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>1157</v>
       </c>
@@ -38821,7 +38823,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="673" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>1157</v>
       </c>
@@ -38869,7 +38871,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="674" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>1157</v>
       </c>
@@ -38917,7 +38919,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="675" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>1157</v>
       </c>
@@ -38965,7 +38967,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="676" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>1157</v>
       </c>
@@ -39013,7 +39015,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="677" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>1157</v>
       </c>
@@ -39061,7 +39063,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="678" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>1157</v>
       </c>
@@ -39109,7 +39111,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="679" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1157</v>
       </c>
@@ -39157,7 +39159,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="680" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1157</v>
       </c>
@@ -39205,7 +39207,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="681" spans="1:16" ht="288" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:16" ht="288" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>1157</v>
       </c>
@@ -39253,7 +39255,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="682" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1157</v>
       </c>
@@ -39301,7 +39303,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="683" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1157</v>
       </c>
@@ -39349,7 +39351,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="684" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1157</v>
       </c>
@@ -39397,7 +39399,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="685" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1157</v>
       </c>
@@ -39445,7 +39447,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="686" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:16" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1157</v>
       </c>
@@ -39493,7 +39495,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="687" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:16" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1157</v>
       </c>
@@ -39541,7 +39543,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="688" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>1157</v>
       </c>
@@ -39589,7 +39591,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="689" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>1157</v>
       </c>
@@ -39685,7 +39687,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="691" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1157</v>
       </c>
@@ -39733,7 +39735,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="692" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>1157</v>
       </c>
@@ -39781,7 +39783,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="693" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>1157</v>
       </c>
@@ -39829,7 +39831,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="694" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>1157</v>
       </c>
@@ -39877,7 +39879,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="695" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>1157</v>
       </c>
@@ -39925,7 +39927,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="696" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>1157</v>
       </c>
@@ -39973,7 +39975,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="697" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1157</v>
       </c>
@@ -40021,7 +40023,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="698" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>1157</v>
       </c>
@@ -40069,7 +40071,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="699" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1157</v>
       </c>
@@ -40117,7 +40119,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="700" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>1157</v>
       </c>
@@ -40165,7 +40167,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="701" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1157</v>
       </c>
@@ -40213,7 +40215,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="702" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>1157</v>
       </c>
@@ -40261,7 +40263,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="703" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>1157</v>
       </c>
@@ -40309,7 +40311,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="704" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>1157</v>
       </c>
@@ -40357,7 +40359,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="705" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1157</v>
       </c>
@@ -40405,7 +40407,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="706" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1157</v>
       </c>
@@ -40453,7 +40455,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="707" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1157</v>
       </c>
@@ -40501,7 +40503,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="708" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1157</v>
       </c>
@@ -40549,7 +40551,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="709" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>1157</v>
       </c>
@@ -40597,7 +40599,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="710" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1157</v>
       </c>
@@ -40645,7 +40647,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="711" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1157</v>
       </c>
@@ -40693,7 +40695,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="712" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1157</v>
       </c>
@@ -40741,7 +40743,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="713" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1157</v>
       </c>
@@ -40789,7 +40791,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="714" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1157</v>
       </c>
@@ -40837,7 +40839,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="715" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1157</v>
       </c>
@@ -40885,7 +40887,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="716" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>1157</v>
       </c>
@@ -40933,7 +40935,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="717" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1157</v>
       </c>
@@ -40981,7 +40983,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="718" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>1157</v>
       </c>
@@ -41029,7 +41031,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="719" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1157</v>
       </c>
@@ -41077,7 +41079,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="720" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>1157</v>
       </c>
@@ -41125,7 +41127,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="721" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1157</v>
       </c>
@@ -41173,7 +41175,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="722" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>1157</v>
       </c>
@@ -41221,7 +41223,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="723" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1157</v>
       </c>
@@ -41269,7 +41271,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="724" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>1157</v>
       </c>
@@ -41317,7 +41319,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="725" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1157</v>
       </c>
@@ -41365,7 +41367,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="726" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1157</v>
       </c>
@@ -41413,7 +41415,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="727" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>1157</v>
       </c>
@@ -41461,7 +41463,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="728" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1157</v>
       </c>
@@ -41509,7 +41511,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="729" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>1157</v>
       </c>
@@ -41557,7 +41559,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="730" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1157</v>
       </c>
@@ -41605,7 +41607,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="731" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1157</v>
       </c>
@@ -41653,7 +41655,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="732" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>1157</v>
       </c>
@@ -41701,7 +41703,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="733" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1157</v>
       </c>
@@ -41749,7 +41751,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="734" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>1157</v>
       </c>
@@ -41797,7 +41799,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="735" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>1157</v>
       </c>
@@ -41845,7 +41847,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="736" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>1157</v>
       </c>
@@ -41893,7 +41895,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="737" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>1157</v>
       </c>
@@ -41941,7 +41943,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="738" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>1157</v>
       </c>
@@ -41989,7 +41991,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="739" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>1157</v>
       </c>
@@ -42037,7 +42039,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="740" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>1157</v>
       </c>
@@ -42085,7 +42087,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="741" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>1157</v>
       </c>
@@ -42133,7 +42135,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="742" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>1157</v>
       </c>
@@ -42181,7 +42183,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="743" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1157</v>
       </c>
@@ -42229,7 +42231,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="744" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>1157</v>
       </c>
@@ -42277,7 +42279,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="745" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1157</v>
       </c>
@@ -42325,7 +42327,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="746" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>1157</v>
       </c>
@@ -42373,7 +42375,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="747" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1157</v>
       </c>
@@ -42421,7 +42423,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="748" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1157</v>
       </c>
@@ -42517,7 +42519,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="750" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1157</v>
       </c>
@@ -42565,7 +42567,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="751" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1157</v>
       </c>
@@ -42613,7 +42615,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="752" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1157</v>
       </c>
@@ -42661,7 +42663,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="753" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1157</v>
       </c>
@@ -42709,7 +42711,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="754" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1157</v>
       </c>
@@ -42757,7 +42759,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="755" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1157</v>
       </c>
@@ -42805,7 +42807,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="756" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1157</v>
       </c>
@@ -42853,7 +42855,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="757" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1157</v>
       </c>
@@ -42901,7 +42903,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="758" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>1157</v>
       </c>
@@ -42949,7 +42951,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="759" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1157</v>
       </c>
@@ -42997,7 +42999,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="760" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1157</v>
       </c>
@@ -43045,7 +43047,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="761" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1157</v>
       </c>
@@ -43093,7 +43095,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="762" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>1157</v>
       </c>
@@ -43141,7 +43143,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="763" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>1157</v>
       </c>
@@ -43189,7 +43191,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="764" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1157</v>
       </c>
@@ -43237,7 +43239,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="765" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>1157</v>
       </c>
@@ -43285,7 +43287,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="766" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>1157</v>
       </c>
@@ -43333,7 +43335,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="767" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1157</v>
       </c>
@@ -43381,7 +43383,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="768" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>1157</v>
       </c>
@@ -43429,7 +43431,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="769" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1157</v>
       </c>
@@ -43477,7 +43479,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="770" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1157</v>
       </c>
@@ -43525,7 +43527,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="771" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>1157</v>
       </c>
@@ -43573,7 +43575,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="772" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>1157</v>
       </c>
@@ -43621,7 +43623,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="773" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1157</v>
       </c>
@@ -43669,7 +43671,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="774" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1157</v>
       </c>
@@ -43717,7 +43719,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="775" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1157</v>
       </c>
@@ -43765,7 +43767,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="776" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>1157</v>
       </c>
@@ -43813,7 +43815,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="777" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1157</v>
       </c>
@@ -43861,7 +43863,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="778" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>1157</v>
       </c>
@@ -43909,7 +43911,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="779" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>1157</v>
       </c>
@@ -43957,7 +43959,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="780" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1157</v>
       </c>
@@ -44005,7 +44007,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="781" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1157</v>
       </c>
@@ -44053,7 +44055,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="782" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1157</v>
       </c>
@@ -44101,7 +44103,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="783" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>1157</v>
       </c>
@@ -44149,7 +44151,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="784" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>1157</v>
       </c>
@@ -44197,7 +44199,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="785" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>1157</v>
       </c>
@@ -44245,7 +44247,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="786" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>1157</v>
       </c>
@@ -44293,7 +44295,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="787" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>1157</v>
       </c>
@@ -44341,7 +44343,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="788" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>1157</v>
       </c>
@@ -44389,7 +44391,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="789" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>1157</v>
       </c>
@@ -44437,7 +44439,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="790" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>1157</v>
       </c>
@@ -44485,7 +44487,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="791" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>1157</v>
       </c>
@@ -44533,7 +44535,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="792" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>1157</v>
       </c>
@@ -44581,7 +44583,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="793" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>1157</v>
       </c>
@@ -44629,7 +44631,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="794" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>1157</v>
       </c>
@@ -44677,7 +44679,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="795" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>1157</v>
       </c>
@@ -44725,7 +44727,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="796" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>1157</v>
       </c>
@@ -44773,7 +44775,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="797" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>1157</v>
       </c>
@@ -44821,7 +44823,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="798" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>1157</v>
       </c>
@@ -44869,7 +44871,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="799" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>1157</v>
       </c>
@@ -44917,7 +44919,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="800" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>1157</v>
       </c>
@@ -44965,7 +44967,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="801" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>1157</v>
       </c>
@@ -45013,7 +45015,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="802" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>1157</v>
       </c>
@@ -45061,7 +45063,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="803" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>1157</v>
       </c>
@@ -45109,7 +45111,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="804" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>1157</v>
       </c>
@@ -45157,7 +45159,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="805" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>1157</v>
       </c>
@@ -45205,7 +45207,7 @@
         <v>neutral</v>
       </c>
     </row>
-    <row r="806" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>1157</v>
       </c>
@@ -45254,6 +45256,34 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:P806" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <x14:filter val="atención call center ser inmejorable oficina dejar desear"/>
+            <x14:filter val="atender bien dar información desear"/>
+            <x14:filter val="buen compañia seguro ser cara seguro carro bien haber poco problema seguro medico dejar desear subir precio constantemente aun si no usa cada vez cobrar menos menos hacer pago oficina esperar poco ser agil cajero soler redondear vuelto favor quedar centavo sumar sumar juntar bastante parecer mal siempre deber redondear él favor cliente"/>
+            <x14:filter val="buen infraestructura servicio dejar desear"/>
+            <x14:filter val="pesimar atención nunca contestar teléfono desear anular seguro vehicular devitar automático supuestamente anulir adquirí nuevo nada aun seguir devitar osea pagar seguro querer devuelvan dinero seguro anulir contestennn abrir atención presencial"/>
+            <x14:filter val="pésimo desear comprar soat  cobrar lima pesar vivir trabajo chiclayo encima hacer reclamo no dar solucion"/>
+            <x14:filter val="presentar puerta impresión tener ser agrar personal vigilancia preguntar razón presencia indicar esperar línea amarillo llamar srta solicitar dni amablemente invitar ingresar tomar asiento aún observar escuché nombre dos ocasión dirigir ventanilla joven atender mejor forma solicitar desear inmediatamente comenzar llenar dato póliza atento servicio higiénico excelente limpieza felicitación empresa organización primero línea"/>
+            <x14:filter val="solo contestar desear vender seguro no haber acción ser unmuy mal servicio deber castigarlo no comprar seguro"/>
+            <x14:filter val="trato personal ventanilla dejar desear deber capacitar él mejor parecer sólo querer deshacer él cliente"/>
+          </mc:Choice>
+          <mc:Fallback>
+            <filter val="atención call center ser inmejorable oficina dejar desear"/>
+            <filter val="atender bien dar información desear"/>
+            <filter val="buen infraestructura servicio dejar desear"/>
+            <filter val="pesimar atención nunca contestar teléfono desear anular seguro vehicular devitar automático supuestamente anulir adquirí nuevo nada aun seguir devitar osea pagar seguro querer devuelvan dinero seguro anulir contestennn abrir atención presencial"/>
+            <filter val="pésimo desear comprar soat  cobrar lima pesar vivir trabajo chiclayo encima hacer reclamo no dar solucion"/>
+            <filter val="solo contestar desear vender seguro no haber acción ser unmuy mal servicio deber castigarlo no comprar seguro"/>
+            <filter val="trato personal ventanilla dejar desear deber capacitar él mejor parecer sólo querer deshacer él cliente"/>
+          </mc:Fallback>
+        </mc:AlternateContent>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>